--- a/APM/Balance Auto Evaluación Integrada _APM aholguinr.xlsx
+++ b/APM/Balance Auto Evaluación Integrada _APM aholguinr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\Semestre-10\APM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F932EE4-2B37-41D2-9E39-4B7E8D31BFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229E46D5-44C7-45F1-9143-4ECAC73E9BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Manuscrito</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>No se presentó y aún no se ha desarrollado</t>
+  </si>
+  <si>
+    <t>Se debe realizar la transición de la plataforma del SDV-UN2 a ROS2 debido a que la versión de ROS sobre la que se montó ya se está deprecando. Además, se plantea la contenerización, mediante Docker u otra aplicación, de esta plataforma para facilitar el acceso y uso por parte de cualquier interesado.</t>
+  </si>
+  <si>
+    <t>Calidad de la sustentación</t>
   </si>
 </sst>
 </file>
@@ -264,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -519,19 +525,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -797,7 +790,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -840,19 +833,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -864,30 +968,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -897,119 +977,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1330,147 +1323,147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A2596E-190B-1047-805E-F901329F82DA}">
   <dimension ref="B1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="141" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" customWidth="1"/>
-    <col min="16" max="16" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="2.88671875" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" customWidth="1"/>
+    <col min="16" max="16" width="43.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="59" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="63" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="66" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-    </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="56" t="s">
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="68" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-    </row>
-    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-    </row>
-    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="30" t="s">
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34" t="s">
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="36"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="34" t="s">
+      <c r="L7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="36"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="55"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
@@ -1483,206 +1476,208 @@
       <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="21" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="41" t="s">
+      <c r="L8" s="22"/>
+      <c r="M8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="24" t="s">
         <v>0</v>
       </c>
       <c r="O8" s="1"/>
-      <c r="P8" s="19"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="P8" s="56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="66">
         <v>9</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="68">
         <v>9</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="64">
         <f>(C9/D9)</f>
         <v>1</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="37" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="43" t="s">
+      <c r="L9" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="44"/>
+      <c r="N9" s="26"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="20"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="37" t="s">
+      <c r="P9" s="57"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="63"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="17" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="39"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="20"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="37" t="s">
+      <c r="P10" s="57"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="63"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="17" t="s">
         <v>5</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="38"/>
-      <c r="N11" s="39"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="20"/>
-    </row>
-    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
+      <c r="P11" s="57"/>
+    </row>
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="67">
         <v>0.5</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="69">
         <v>1</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="65">
         <f>C12/D12</f>
         <v>0.5</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="37" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="17" t="s">
         <v>35</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="40" t="s">
+      <c r="L12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="45"/>
-      <c r="N12" s="46"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="28"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="20"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="37" t="s">
+      <c r="P12" s="57"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="63"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="20"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P13" s="57"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <f>C14/D14</f>
+        <v>0.8</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="57"/>
+    </row>
+    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3">
-        <v>4</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" ref="E14:E17" si="0">C14/D14</f>
-        <v>0.75</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="20"/>
-    </row>
-    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="C15" s="7">
         <v>4</v>
@@ -1691,111 +1686,117 @@
         <v>5</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="0"/>
+        <f>C15/D15</f>
         <v>0.8</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="37" t="s">
+      <c r="F15" s="18"/>
+      <c r="G15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="21"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P15" s="58"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="37" t="s">
+        <f>C16/D16</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
-        <v>23</v>
+    <row r="17" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="70" t="s">
+        <v>44</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="0"/>
+        <f>C17/D17</f>
         <v>1</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="40" t="s">
+      <c r="F17" s="18"/>
+      <c r="G17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="42"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C18" s="7">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="33"/>
+        <v>5</v>
+      </c>
+      <c r="E18" s="4">
+        <f>C18/D18</f>
+        <v>0.8</v>
+      </c>
+      <c r="F18" s="18"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="49"/>
+      <c r="L18" s="31"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="12">
-        <v>90</v>
-      </c>
-      <c r="D19" s="13">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="7">
+        <v>75</v>
+      </c>
+      <c r="D19" s="3">
         <v>100</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="33"/>
+      <c r="E19" s="4">
+        <f t="shared" ref="E19:E20" si="0">C19/D19</f>
+        <v>0.75</v>
+      </c>
+      <c r="F19" s="18"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1806,27 +1807,46 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="12">
+        <v>90</v>
+      </c>
+      <c r="D20" s="13">
+        <v>100</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="10"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1834,14 +1854,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="P8:P15"/>
@@ -1854,6 +1866,14 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/APM/Balance Auto Evaluación Integrada _APM aholguinr.xlsx
+++ b/APM/Balance Auto Evaluación Integrada _APM aholguinr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\Semestre-10\APM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229E46D5-44C7-45F1-9143-4ECAC73E9BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788124FF-36D5-4190-B8B0-9F24A2F49F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>Manuscrito</t>
   </si>
@@ -44,21 +44,12 @@
     <t>POA</t>
   </si>
   <si>
-    <t>Redes de Petri</t>
-  </si>
-  <si>
     <t>Laboratorio</t>
   </si>
   <si>
     <t>Si</t>
   </si>
   <si>
-    <t>SVDs</t>
-  </si>
-  <si>
-    <t>SCARA</t>
-  </si>
-  <si>
     <t>Laboratorios</t>
   </si>
   <si>
@@ -119,12 +110,6 @@
     <t>KPIs Académicos</t>
   </si>
   <si>
-    <t>Ingeniería Inversa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neumática Básica </t>
-  </si>
-  <si>
     <t>Manuscritos</t>
   </si>
   <si>
@@ -140,9 +125,6 @@
     <t>Industria 4.0 y IIOT</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Andrés Holguín Restrepo</t>
   </si>
   <si>
@@ -168,6 +150,18 @@
   </si>
   <si>
     <t>Calidad de la sustentación</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>Robótica Colaborativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neumática  </t>
+  </si>
+  <si>
+    <t>Motion Control MAYA</t>
   </si>
 </sst>
 </file>
@@ -792,7 +786,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -869,9 +863,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -886,6 +877,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -999,9 +993,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1323,40 +1314,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A2596E-190B-1047-805E-F901329F82DA}">
   <dimension ref="B1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="141" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="141" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="2.88671875" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" customWidth="1"/>
-    <col min="16" max="16" width="43.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="44" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
       <c r="E2" s="46"/>
       <c r="F2" s="18"/>
       <c r="G2" s="41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
@@ -1366,16 +1357,16 @@
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="47" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
       <c r="E3" s="49"/>
       <c r="F3" s="18"/>
       <c r="G3" s="32" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H3" s="33"/>
       <c r="I3" s="33"/>
@@ -1385,16 +1376,16 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
       <c r="E4" s="49"/>
       <c r="F4" s="18"/>
       <c r="G4" s="35" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
@@ -1404,16 +1395,16 @@
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="50" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
       <c r="E5" s="52"/>
       <c r="F5" s="18"/>
       <c r="G5" s="38" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="39"/>
@@ -1423,7 +1414,7 @@
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -1438,77 +1429,77 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="59" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" s="60"/>
       <c r="D7" s="60"/>
       <c r="E7" s="61"/>
       <c r="F7" s="18"/>
       <c r="G7" s="53" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H7" s="54"/>
       <c r="I7" s="54"/>
       <c r="J7" s="55"/>
       <c r="K7" s="1"/>
       <c r="L7" s="53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M7" s="54"/>
       <c r="N7" s="55"/>
       <c r="O7" s="1"/>
       <c r="P7" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="19"/>
       <c r="H8" s="20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>0</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="22"/>
       <c r="M8" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" s="24" t="s">
         <v>0</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="56" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="62" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="66">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D9" s="68">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E9" s="64">
         <f>(C9/D9)</f>
@@ -1516,56 +1507,60 @@
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="25" t="s">
         <v>1</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="57"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="63"/>
       <c r="C10" s="67"/>
       <c r="D10" s="69"/>
       <c r="E10" s="65"/>
       <c r="F10" s="18"/>
       <c r="G10" s="19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="20"/>
+        <v>42</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="N10" s="21"/>
       <c r="O10" s="1"/>
       <c r="P10" s="57"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="63"/>
       <c r="C11" s="67"/>
       <c r="D11" s="69"/>
@@ -1575,71 +1570,79 @@
         <v>1</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="N11" s="21"/>
       <c r="O11" s="1"/>
       <c r="P11" s="57"/>
     </row>
-    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="63" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" s="67">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="65">
         <f>C12/D12</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="19" t="s">
         <v>2</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="28"/>
+        <v>40</v>
+      </c>
+      <c r="M12" s="26"/>
+      <c r="N12" s="27"/>
       <c r="O12" s="1"/>
       <c r="P12" s="57"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="63"/>
       <c r="C13" s="67"/>
       <c r="D13" s="69"/>
       <c r="E13" s="65"/>
       <c r="F13" s="18"/>
       <c r="G13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
+        <v>9</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>4</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1647,55 +1650,67 @@
       <c r="O13" s="1"/>
       <c r="P13" s="57"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E14" s="4">
         <f>C14/D14</f>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>4</v>
+      </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
       <c r="O14" s="1"/>
       <c r="P14" s="57"/>
     </row>
-    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E15" s="4">
         <f>C15/D15</f>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
+        <v>41</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>4</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1703,15 +1718,15 @@
       <c r="O15" s="1"/>
       <c r="P15" s="58"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E16" s="4">
         <f>C16/D16</f>
@@ -1719,37 +1734,39 @@
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
+      <c r="J16" s="17" t="s">
+        <v>4</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="70" t="s">
-        <v>44</v>
+    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E17" s="4">
         <f>C17/D17</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="G17" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="24"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1757,19 +1774,19 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E18" s="4">
         <f>C18/D18</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="1"/>
@@ -1777,14 +1794,14 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="31"/>
+      <c r="L18" s="30"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
         <v>75</v>
@@ -1807,9 +1824,9 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C20" s="12">
         <v>90</v>
@@ -1823,7 +1840,6 @@
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1832,21 +1848,21 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="5"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>

--- a/APM/Balance Auto Evaluación Integrada _APM aholguinr.xlsx
+++ b/APM/Balance Auto Evaluación Integrada _APM aholguinr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\Semestre-10\APM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788124FF-36D5-4190-B8B0-9F24A2F49F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0933F0B-4440-4B16-B163-1B6B952075E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Manuscrito</t>
   </si>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -786,7 +786,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -881,69 +881,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -994,6 +931,78 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1003,7 +1012,9 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{CC146D6E-DC64-4D15-B747-4F57A9B96651}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1314,107 +1325,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A2596E-190B-1047-805E-F901329F82DA}">
   <dimension ref="B1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="141" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="142" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" customWidth="1"/>
-    <col min="16" max="16" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="2.88671875" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" customWidth="1"/>
+    <col min="16" max="16" width="43.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="60"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="50" t="s">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -1429,32 +1440,32 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="59" t="s">
+    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="34"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="53" t="s">
+      <c r="L7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="54"/>
-      <c r="N7" s="55"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="34"/>
       <c r="O7" s="1"/>
       <c r="P7" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
@@ -1487,21 +1498,21 @@
         <v>0</v>
       </c>
       <c r="O8" s="1"/>
-      <c r="P8" s="56" t="s">
+      <c r="P8" s="35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="62" t="s">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="45">
         <v>30</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="47">
         <v>30</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="43">
         <f>(C9/D9)</f>
         <v>1</v>
       </c>
@@ -1513,7 +1524,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>4</v>
@@ -1529,13 +1540,13 @@
         <v>39</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="P9" s="57"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="63"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="65"/>
+      <c r="P9" s="36"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="42"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="18"/>
       <c r="G10" s="19" t="s">
         <v>7</v>
@@ -1544,7 +1555,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>4</v>
@@ -1556,15 +1567,17 @@
       <c r="M10" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="21"/>
+      <c r="N10" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="O10" s="1"/>
-      <c r="P10" s="57"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="63"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="65"/>
+      <c r="P10" s="36"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="42"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="18"/>
       <c r="G11" s="19" t="s">
         <v>1</v>
@@ -1573,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="J11" s="17" t="s">
         <v>4</v>
@@ -1587,21 +1600,21 @@
       </c>
       <c r="N11" s="21"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="57"/>
-    </row>
-    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="63" t="s">
+      <c r="P11" s="36"/>
+    </row>
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="67">
-        <v>2</v>
-      </c>
-      <c r="D12" s="69">
+      <c r="C12" s="46">
+        <v>2.5</v>
+      </c>
+      <c r="D12" s="48">
         <v>3</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="44">
         <f>C12/D12</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="19" t="s">
@@ -1623,13 +1636,13 @@
       <c r="M12" s="26"/>
       <c r="N12" s="27"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="57"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="63"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="65"/>
+      <c r="P12" s="36"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="42"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="18"/>
       <c r="G13" s="19" t="s">
         <v>9</v>
@@ -1648,21 +1661,21 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="57"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P13" s="36"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>10</v>
       </c>
       <c r="E14" s="4">
         <f>C14/D14</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="19" t="s">
@@ -1682,21 +1695,21 @@
       <c r="M14" s="28"/>
       <c r="N14" s="28"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="57"/>
-    </row>
-    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P14" s="36"/>
+    </row>
+    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3">
         <v>10</v>
       </c>
       <c r="E15" s="4">
         <f>C15/D15</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="19" t="s">
@@ -1716,9 +1729,9 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="58"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P15" s="37"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1733,23 +1746,17 @@
         <v>1</v>
       </c>
       <c r="F16" s="18"/>
-      <c r="G16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="17" t="s">
-        <v>4</v>
-      </c>
+      <c r="G16" s="70"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="31" t="s">
         <v>38</v>
       </c>
@@ -1774,7 +1781,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
@@ -1799,7 +1806,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>35</v>
       </c>
@@ -1824,7 +1831,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
         <v>34</v>
       </c>
@@ -1848,7 +1855,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
@@ -1856,13 +1863,13 @@
       <c r="D21" s="5"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1870,6 +1877,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="P8:P15"/>
@@ -1882,14 +1897,6 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/APM/Balance Auto Evaluación Integrada _APM aholguinr.xlsx
+++ b/APM/Balance Auto Evaluación Integrada _APM aholguinr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\Semestre-10\APM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0933F0B-4440-4B16-B163-1B6B952075E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11963174-D9AF-4BE6-A16E-087C169165BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,8 +32,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={83909FF3-C0AA-47B8-B928-0052C7ECE329}</author>
+    <author>tc={D24C306E-C66D-41D0-AF8E-AA895DE9421F}</author>
+    <author>tc={FE42112D-C0EF-4A6C-A92A-BF2A17A607D8}</author>
+  </authors>
+  <commentList>
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{83909FF3-C0AA-47B8-B928-0052C7ECE329}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Se tiene en cuenta las actividades realizadas durante el movimiento estudiantil</t>
+      </text>
+    </comment>
+    <comment ref="L12" authorId="1" shapeId="0" xr:uid="{D24C306E-C66D-41D0-AF8E-AA895DE9421F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    No se manufactura la pieza por indisponibilidad del laboratorio.</t>
+      </text>
+    </comment>
+    <comment ref="L13" authorId="2" shapeId="0" xr:uid="{FE42112D-C0EF-4A6C-A92A-BF2A17A607D8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    No se ejecuta la rutina por indisponibilidad del laboratorio.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>Manuscrito</t>
   </si>
@@ -110,15 +146,6 @@
     <t>KPIs Académicos</t>
   </si>
   <si>
-    <t>Manuscritos</t>
-  </si>
-  <si>
-    <t>Se presentó</t>
-  </si>
-  <si>
-    <t>No se presentó pero está disponible para presentarse</t>
-  </si>
-  <si>
     <t>Control de Movimiento</t>
   </si>
   <si>
@@ -143,9 +170,6 @@
     <t>Avances proyecto respecto cronograma</t>
   </si>
   <si>
-    <t>No se presentó y aún no se ha desarrollado</t>
-  </si>
-  <si>
     <t>Se debe realizar la transición de la plataforma del SDV-UN2 a ROS2 debido a que la versión de ROS sobre la que se montó ya se está deprecando. Además, se plantea la contenerización, mediante Docker u otra aplicación, de esta plataforma para facilitar el acceso y uso por parte de cualquier interesado.</t>
   </si>
   <si>
@@ -162,13 +186,31 @@
   </si>
   <si>
     <t>Motion Control MAYA</t>
+  </si>
+  <si>
+    <t>En proceso (EP)</t>
+  </si>
+  <si>
+    <t>Entregas</t>
+  </si>
+  <si>
+    <t>Se presentó (Sí)</t>
+  </si>
+  <si>
+    <t>No se presentó y aún no se ha desarrollado (No)</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>Dynamic Milling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,14 +226,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -223,6 +257,18 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -264,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -779,14 +825,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -830,7 +898,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -863,49 +931,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -932,76 +1054,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,6 +1098,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Andres Holguin Restrepo" id="{04C311E3-27DB-48BD-9104-93B370CB6E41}" userId="S::holguina@mcmaster.ca::6d81e7ce-36b0-4af9-b6cd-2a70953ac4e7" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1321,11 +1401,25 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D9" dT="2023-06-26T14:04:12.12" personId="{04C311E3-27DB-48BD-9104-93B370CB6E41}" id="{83909FF3-C0AA-47B8-B928-0052C7ECE329}">
+    <text>Se tiene en cuenta las actividades realizadas durante el movimiento estudiantil</text>
+  </threadedComment>
+  <threadedComment ref="L12" dT="2023-06-26T14:07:05.65" personId="{04C311E3-27DB-48BD-9104-93B370CB6E41}" id="{D24C306E-C66D-41D0-AF8E-AA895DE9421F}">
+    <text>No se manufactura la pieza por indisponibilidad del laboratorio.</text>
+  </threadedComment>
+  <threadedComment ref="L13" dT="2023-06-26T14:07:21.24" personId="{04C311E3-27DB-48BD-9104-93B370CB6E41}" id="{FE42112D-C0EF-4A6C-A92A-BF2A17A607D8}">
+    <text>No se ejecuta la rutina por indisponibilidad del laboratorio.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A2596E-190B-1047-805E-F901329F82DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A2596E-190B-1047-805E-F901329F82DA}">
   <dimension ref="B1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="142" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1338,7 +1432,7 @@
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="2.88671875" customWidth="1"/>
     <col min="7" max="7" width="21.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" customWidth="1"/>
     <col min="10" max="10" width="9.109375" customWidth="1"/>
     <col min="11" max="11" width="2.88671875" customWidth="1"/>
@@ -1350,76 +1444,76 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
+      <c r="B2" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
+      <c r="G2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
+      <c r="B3" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
+      <c r="G3" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
+      <c r="G4" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
+      <c r="B5" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
+      <c r="G5" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
@@ -1441,25 +1535,25 @@
       <c r="N6" s="18"/>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="34"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="52"/>
       <c r="O7" s="1"/>
       <c r="P7" s="15" t="s">
         <v>8</v>
@@ -1498,33 +1592,33 @@
         <v>0</v>
       </c>
       <c r="O8" s="1"/>
-      <c r="P8" s="35" t="s">
-        <v>37</v>
+      <c r="P8" s="53" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="45">
-        <v>30</v>
-      </c>
-      <c r="D9" s="47">
-        <v>30</v>
-      </c>
-      <c r="E9" s="43">
+      <c r="C9" s="63">
+        <v>34</v>
+      </c>
+      <c r="D9" s="65">
+        <v>36</v>
+      </c>
+      <c r="E9" s="61">
         <f>(C9/D9)</f>
-        <v>1</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>4</v>
@@ -1534,19 +1628,19 @@
         <v>1</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="P9" s="36"/>
+      <c r="P9" s="54"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="42"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="18"/>
       <c r="G10" s="19" t="s">
         <v>7</v>
@@ -1555,29 +1649,29 @@
         <v>4</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>4</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="P10" s="36"/>
+      <c r="P10" s="54"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="42"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="44"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="62"/>
       <c r="F11" s="18"/>
       <c r="G11" s="19" t="s">
         <v>1</v>
@@ -1586,7 +1680,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J11" s="17" t="s">
         <v>4</v>
@@ -1596,132 +1690,144 @@
         <v>22</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="21"/>
+        <v>35</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="O11" s="1"/>
-      <c r="P11" s="36"/>
-    </row>
-    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="42" t="s">
+      <c r="P11" s="54"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="46">
-        <v>2.5</v>
-      </c>
-      <c r="D12" s="48">
-        <v>3</v>
-      </c>
-      <c r="E12" s="44">
+      <c r="C12" s="64">
+        <v>4</v>
+      </c>
+      <c r="D12" s="66">
+        <v>5</v>
+      </c>
+      <c r="E12" s="62">
         <f>C12/D12</f>
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="19" t="s">
         <v>2</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="27"/>
+      <c r="L12" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="O12" s="1"/>
-      <c r="P12" s="36"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="42"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="44"/>
+      <c r="P12" s="54"/>
+    </row>
+    <row r="13" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="60"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="18"/>
       <c r="G13" s="19" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>4</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="L13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="70" t="s">
+        <v>43</v>
+      </c>
       <c r="O13" s="1"/>
-      <c r="P13" s="36"/>
+      <c r="P13" s="54"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14" s="4">
         <f>C14/D14</f>
-        <v>0.9</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>4</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="36"/>
+      <c r="P14" s="54"/>
     </row>
     <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E15" s="4">
         <f>C15/D15</f>
-        <v>0.9</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="17" t="s">
+      <c r="G15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="74" t="s">
         <v>4</v>
       </c>
       <c r="K15" s="1"/>
@@ -1729,52 +1835,52 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="37"/>
+      <c r="P15" s="55"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" s="4">
         <f>C16/D16</f>
         <v>1</v>
       </c>
       <c r="F16" s="18"/>
-      <c r="G16" s="70"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="71"/>
       <c r="I16" s="71"/>
-      <c r="J16" s="72"/>
+      <c r="J16" s="71"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="31" t="s">
-        <v>38</v>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" s="4">
         <f>C17/D17</f>
-        <v>0.8</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="24"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="71"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1786,10 +1892,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" s="4">
         <f>C18/D18</f>
@@ -1801,24 +1907,24 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="30"/>
+      <c r="L18" s="27"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D19" s="3">
         <v>100</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" ref="E19:E20" si="0">C19/D19</f>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="1"/>
@@ -1833,7 +1939,7 @@
     </row>
     <row r="20" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" s="12">
         <v>90</v>
@@ -1861,7 +1967,10 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="14"/>
+      <c r="E21" s="14">
+        <f>AVERAGE(E9:E20)</f>
+        <v>0.85881032547699221</v>
+      </c>
     </row>
     <row r="22" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
@@ -1877,14 +1986,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="P8:P15"/>
@@ -1897,8 +1998,17 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>